--- a/2 - Heroin/h.xlsx
+++ b/2 - Heroin/h.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
@@ -113,18 +113,6 @@
     <t>2010-2011</t>
   </si>
   <si>
-    <t>21+ days in past month</t>
-  </si>
-  <si>
-    <t>11–20 days in past month</t>
-  </si>
-  <si>
-    <t>4–10 days in past month</t>
-  </si>
-  <si>
-    <t>Chronic (10 or more days)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Female</t>
   </si>
   <si>
@@ -144,6 +132,18 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Occasional Users</t>
+  </si>
+  <si>
+    <t>Chronic Users (more than 10 days per/mo)</t>
+  </si>
+  <si>
+    <t>HerionUseByFrequency</t>
+  </si>
+  <si>
+    <t>National, Thousands</t>
   </si>
 </sst>
 </file>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -729,18 +729,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -760,8 +768,8 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -771,13 +779,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -961,7 +969,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1107,225 +1115,145 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45">
+    <row r="1" spans="1:3" ht="75">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>0.3</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="9">
-        <f>C2+D2</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="9">
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>0.3</v>
+        <v>130</v>
       </c>
       <c r="C3" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E12" si="0">C3+D3</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>0.2</v>
+        <v>210</v>
       </c>
       <c r="C4" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>0.2</v>
+        <v>130</v>
       </c>
       <c r="C5" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>0.2</v>
+        <v>120</v>
       </c>
       <c r="C6" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>0.2</v>
+        <v>180</v>
       </c>
       <c r="C7" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>2006</v>
       </c>
       <c r="B8" s="9">
-        <v>0.2</v>
+        <v>380</v>
       </c>
       <c r="C8" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>0.2</v>
+        <v>150</v>
       </c>
       <c r="C9" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="9">
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>0.2</v>
+        <v>240</v>
       </c>
       <c r="C10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="9">
         <v>2009</v>
       </c>
       <c r="B11" s="9">
-        <v>0.3</v>
+        <v>340</v>
       </c>
       <c r="C11" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="9">
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>0.3</v>
+        <v>330</v>
       </c>
       <c r="C12" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/2 - Heroin/h.xlsx
+++ b/2 - Heroin/h.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21140" tabRatio="660" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
@@ -12,7 +12,13 @@
     <sheet name="US_HeroinPast30Days" sheetId="1" r:id="rId3"/>
     <sheet name="USHeroinAge" sheetId="2" r:id="rId4"/>
     <sheet name="HeroinUseByFrequency" sheetId="3" r:id="rId5"/>
+    <sheet name="EconomicCost" sheetId="6" r:id="rId6"/>
+    <sheet name="HepC" sheetId="7" r:id="rId7"/>
+    <sheet name="Prevalence" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Prevalence!$A$1:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="257">
   <si>
     <t>RACE</t>
   </si>
@@ -145,15 +151,717 @@
   <si>
     <t>National, Thousands</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Economic Cost</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Office of National Drug Control Policy </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Economic Costs of Drug Abuse in the United States</t>
+    </r>
+  </si>
+  <si>
+    <t>Health Care Costs</t>
+  </si>
+  <si>
+    <t>Other Costs</t>
+  </si>
+  <si>
+    <t>Productivity Losses</t>
+  </si>
+  <si>
+    <t>$Millions; All drugs not just H</t>
+  </si>
+  <si>
+    <t>1/1/1992</t>
+  </si>
+  <si>
+    <t>1/1/1993</t>
+  </si>
+  <si>
+    <t>1/1/1994</t>
+  </si>
+  <si>
+    <t>1/1/1995</t>
+  </si>
+  <si>
+    <t>1/1/1996</t>
+  </si>
+  <si>
+    <t>1/1/1997</t>
+  </si>
+  <si>
+    <t>1/1/1998</t>
+  </si>
+  <si>
+    <t>1/1/1999</t>
+  </si>
+  <si>
+    <t>1/1/2000</t>
+  </si>
+  <si>
+    <t>1/1/2001</t>
+  </si>
+  <si>
+    <t>1/1/2002</t>
+  </si>
+  <si>
+    <t>Best estimate</t>
+  </si>
+  <si>
+    <t>Low estimate</t>
+  </si>
+  <si>
+    <t>High estimate</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>15-64</t>
+  </si>
+  <si>
+    <t>Reference Group to the UN on HIV and IDU</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>Government Report</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>ARQ</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>Government source</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Cure Research estimate</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>Government Source</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>12+</t>
+  </si>
+  <si>
+    <t>UNODC Estimate</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>Govt;  Academic Research</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>15-65</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>16-65</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>12-65</t>
+  </si>
+  <si>
+    <t>CICAD/MEM</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>12-70</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>12-64</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Armenian Pubic Health Associations</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Government report</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>SCAD Report - Academic Research</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>UNODC (GAP survey)</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>INCSR/ Reference Group to the UN on HIV and IDU</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Academic research/ Reference Group to the UN on HI</t>
+  </si>
+  <si>
+    <t>UNAIDS</t>
+  </si>
+  <si>
+    <t>China, Hong Kong SAR</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>UNODC (ICMP)</t>
+  </si>
+  <si>
+    <t>China, Macao SAR</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>UNODC/ Govt. Source</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>18-40</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Government/UNODC</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>EMCDDA</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>18-64</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011 </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>ARQ/EMCDDA</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Govt.</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United Kingdom (England and Wales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010 </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>United Kingdom (Northern Ireland)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006 </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004 </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>United Kingdom (Scotland)</t>
+  </si>
+  <si>
+    <t>Information Services Division, Scotland</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>15-45</t>
+  </si>
+  <si>
+    <t>16-64</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,8 +925,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7.3"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +988,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -261,8 +1024,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -309,11 +1183,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -336,8 +1220,70 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="59">
     <cellStyle name="Comma 2" xfId="46"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -362,6 +1308,11 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -385,6 +1336,11 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="45"/>
   </cellStyles>
@@ -715,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -727,15 +1683,18 @@
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -743,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -751,8 +1710,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1117,7 +2088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1265,4 +2236,5663 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="17">
+        <f>SUM(C2:E2)</f>
+        <v>137915</v>
+      </c>
+      <c r="C2" s="16">
+        <v>13719</v>
+      </c>
+      <c r="D2" s="16">
+        <v>24909</v>
+      </c>
+      <c r="E2" s="16">
+        <v>99287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="17">
+        <f t="shared" ref="B3:B12" si="0">SUM(C3:E3)</f>
+        <v>138086</v>
+      </c>
+      <c r="C3" s="16">
+        <v>14736</v>
+      </c>
+      <c r="D3" s="16">
+        <v>24662</v>
+      </c>
+      <c r="E3" s="16">
+        <v>98688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="17">
+        <f t="shared" si="0"/>
+        <v>142468</v>
+      </c>
+      <c r="C4" s="16">
+        <v>14761</v>
+      </c>
+      <c r="D4" s="16">
+        <v>25892</v>
+      </c>
+      <c r="E4" s="16">
+        <v>101815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>147479</v>
+      </c>
+      <c r="C5" s="16">
+        <v>14087</v>
+      </c>
+      <c r="D5" s="16">
+        <v>28091</v>
+      </c>
+      <c r="E5" s="16">
+        <v>105301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>148706</v>
+      </c>
+      <c r="C6" s="16">
+        <v>13249</v>
+      </c>
+      <c r="D6" s="16">
+        <v>28325</v>
+      </c>
+      <c r="E6" s="16">
+        <v>107132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>150235</v>
+      </c>
+      <c r="C7" s="16">
+        <v>13337</v>
+      </c>
+      <c r="D7" s="16">
+        <v>29905</v>
+      </c>
+      <c r="E7" s="16">
+        <v>106993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>154456</v>
+      </c>
+      <c r="C8" s="16">
+        <v>13569</v>
+      </c>
+      <c r="D8" s="16">
+        <v>31334</v>
+      </c>
+      <c r="E8" s="16">
+        <v>109553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>163311</v>
+      </c>
+      <c r="C9" s="16">
+        <v>13873</v>
+      </c>
+      <c r="D9" s="16">
+        <v>33572</v>
+      </c>
+      <c r="E9" s="16">
+        <v>115866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
+        <v>167746</v>
+      </c>
+      <c r="C10" s="16">
+        <v>13974</v>
+      </c>
+      <c r="D10" s="16">
+        <v>35280</v>
+      </c>
+      <c r="E10" s="16">
+        <v>118492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="0"/>
+        <v>171715</v>
+      </c>
+      <c r="C11" s="16">
+        <v>14700</v>
+      </c>
+      <c r="D11" s="16">
+        <v>35118</v>
+      </c>
+      <c r="E11" s="16">
+        <v>121897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>180601</v>
+      </c>
+      <c r="C12" s="16">
+        <v>15675</v>
+      </c>
+      <c r="D12" s="16">
+        <v>36363</v>
+      </c>
+      <c r="E12" s="16">
+        <v>128563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G350"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1.29</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="A4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.44</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.37</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" thickBot="1">
+      <c r="A16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="54">
+      <c r="A17" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="54">
+      <c r="A28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="36">
+      <c r="A32" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.09</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18">
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" ht="18">
+      <c r="A35" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18">
+      <c r="A36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="28">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18">
+      <c r="A39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+    </row>
+    <row r="40" spans="1:7" ht="18">
+      <c r="A40" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18">
+      <c r="A41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="28">
+        <v>2.8</v>
+      </c>
+      <c r="C42" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18">
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" ht="18">
+      <c r="A45" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18">
+      <c r="A46" s="28"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="28"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="28"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="28"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="19" thickBot="1">
+      <c r="A53" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19" thickBot="1">
+      <c r="A54" s="37"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28">
+        <v>1</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="28"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="C59" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18">
+      <c r="A60" s="28"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="1:7" ht="36">
+      <c r="A61" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" customHeight="1">
+      <c r="A62" s="28"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+    </row>
+    <row r="63" spans="1:7" ht="36">
+      <c r="A63" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="28">
+        <v>5.61</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" customHeight="1" thickBot="1">
+      <c r="A64" s="28"/>
+      <c r="B64" s="37">
+        <v>6.1</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19" thickBot="1">
+      <c r="A65" s="37"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="1:7" ht="18">
+      <c r="A66" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28">
+        <v>0.19</v>
+      </c>
+      <c r="C67" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="D67" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18">
+      <c r="A68" s="28"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="1:7" ht="54">
+      <c r="A69" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="C69" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="D69" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" customHeight="1">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18">
+      <c r="A71" s="28"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+    </row>
+    <row r="72" spans="1:7" ht="18">
+      <c r="A72" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28">
+        <v>1.45</v>
+      </c>
+      <c r="C73" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="D73" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18">
+      <c r="A74" s="28"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+    </row>
+    <row r="75" spans="1:7" ht="18">
+      <c r="A75" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18">
+      <c r="A77" s="28"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+    </row>
+    <row r="78" spans="1:7" ht="18">
+      <c r="A78" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18">
+      <c r="A80" s="28"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+    </row>
+    <row r="81" spans="1:7" ht="18">
+      <c r="A81" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C81" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D81" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18">
+      <c r="A83" s="28"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+    </row>
+    <row r="84" spans="1:7" ht="18">
+      <c r="A84" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18">
+      <c r="A85" s="28"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+    </row>
+    <row r="86" spans="1:7" ht="18">
+      <c r="A86" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18">
+      <c r="A87" s="28"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+    </row>
+    <row r="88" spans="1:7" ht="18">
+      <c r="A88" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18">
+      <c r="A89" s="28"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+    </row>
+    <row r="90" spans="1:7" ht="18">
+      <c r="A90" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="C91" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="D91" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18">
+      <c r="A92" s="28"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+    </row>
+    <row r="93" spans="1:7" ht="54">
+      <c r="A93" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18" customHeight="1">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="24" thickBot="1">
+      <c r="A95" s="28"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+    </row>
+    <row r="96" spans="1:7" ht="24" thickBot="1">
+      <c r="A96" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+    </row>
+    <row r="97" spans="1:7" ht="18">
+      <c r="A97" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="C97" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D97" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C98" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="D98" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18">
+      <c r="A99" s="28"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+    </row>
+    <row r="100" spans="1:7" ht="18">
+      <c r="A100" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="C101" s="19">
+        <v>1.28</v>
+      </c>
+      <c r="D101" s="19">
+        <v>1.72</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18">
+      <c r="A102" s="28"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+    </row>
+    <row r="103" spans="1:7" ht="18">
+      <c r="A103" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28">
+        <v>1.36</v>
+      </c>
+      <c r="C104" s="19">
+        <v>1.33</v>
+      </c>
+      <c r="D104" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18">
+      <c r="A105" s="28"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+    </row>
+    <row r="106" spans="1:7" ht="18">
+      <c r="A106" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="28">
+        <v>1</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18">
+      <c r="A107" s="28"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+    </row>
+    <row r="108" spans="1:7" ht="18">
+      <c r="A108" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18">
+      <c r="A109" s="28"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+    </row>
+    <row r="110" spans="1:7" ht="18">
+      <c r="A110" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18">
+      <c r="A111" s="28"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+    </row>
+    <row r="112" spans="1:7" ht="18">
+      <c r="A112" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" s="28">
+        <v>0.32</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18">
+      <c r="A113" s="28"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+    </row>
+    <row r="114" spans="1:7" ht="19" thickBot="1">
+      <c r="A114" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="19" thickBot="1">
+      <c r="A115" s="37"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+    </row>
+    <row r="116" spans="1:7" ht="36">
+      <c r="A116" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18" customHeight="1">
+      <c r="A117" s="28"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+    </row>
+    <row r="118" spans="1:7" ht="28">
+      <c r="A118" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F119" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18">
+      <c r="A120" s="28"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+    </row>
+    <row r="121" spans="1:7" ht="28">
+      <c r="A121" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="C121" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="D121" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28">
+        <v>0.19</v>
+      </c>
+      <c r="C122" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="D122" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18">
+      <c r="A123" s="28"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+    </row>
+    <row r="124" spans="1:7" ht="36">
+      <c r="A124" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18" customHeight="1">
+      <c r="A125" s="28"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+    </row>
+    <row r="126" spans="1:7" ht="18">
+      <c r="A126" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F127" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G127" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="18">
+      <c r="A128" s="28"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+    </row>
+    <row r="129" spans="1:7" ht="54">
+      <c r="A129" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="28">
+        <v>0.37</v>
+      </c>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F129" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18" customHeight="1">
+      <c r="A130" s="28"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+    </row>
+    <row r="131" spans="1:7" ht="36">
+      <c r="A131" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="28">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="18" customHeight="1">
+      <c r="A132" s="28"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+    </row>
+    <row r="133" spans="1:7" ht="18">
+      <c r="A133" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="28">
+        <v>0.94</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18">
+      <c r="A134" s="28"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+    </row>
+    <row r="135" spans="1:7" ht="18">
+      <c r="A135" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F135" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18">
+      <c r="A136" s="28"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+    </row>
+    <row r="137" spans="1:7" ht="18">
+      <c r="A137" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="C137" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D137" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F137" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18">
+      <c r="A138" s="28"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+    </row>
+    <row r="139" spans="1:7" ht="18">
+      <c r="A139" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="C139" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="D139" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18">
+      <c r="A141" s="28"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+    </row>
+    <row r="142" spans="1:7" ht="36">
+      <c r="A142" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="C142" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D142" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G142" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18" customHeight="1">
+      <c r="A143" s="28"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+    </row>
+    <row r="144" spans="1:7" ht="18">
+      <c r="A144" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C144" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D144" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="E144" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="28"/>
+      <c r="B145" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F145" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18">
+      <c r="A146" s="28"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+    </row>
+    <row r="147" spans="1:7" ht="18">
+      <c r="A147" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G147" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18">
+      <c r="A148" s="28"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+    </row>
+    <row r="149" spans="1:7" ht="18">
+      <c r="A149" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="18">
+      <c r="A150" s="28"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+    </row>
+    <row r="151" spans="1:7" ht="18">
+      <c r="A151" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B151" s="28">
+        <v>0.53</v>
+      </c>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="28">
+      <c r="A152" s="28"/>
+      <c r="B152" s="28">
+        <v>0.27</v>
+      </c>
+      <c r="C152" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D152" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E152" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="18">
+      <c r="A153" s="28"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+    </row>
+    <row r="154" spans="1:7" ht="55" thickBot="1">
+      <c r="A154" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F154" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18" customHeight="1" thickBot="1">
+      <c r="A155" s="37"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+    </row>
+    <row r="156" spans="1:7" ht="18">
+      <c r="A156" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="28">
+        <v>2.92</v>
+      </c>
+      <c r="C156" s="19">
+        <v>2.65</v>
+      </c>
+      <c r="D156" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="E156" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F156" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="28"/>
+      <c r="B157" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F157" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G157" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18">
+      <c r="A158" s="28"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+    </row>
+    <row r="159" spans="1:7" ht="36">
+      <c r="A159" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="28">
+        <v>2.27</v>
+      </c>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F159" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="18" customHeight="1">
+      <c r="A160" s="28"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+    </row>
+    <row r="161" spans="1:7" ht="18">
+      <c r="A161" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="C161" s="19">
+        <v>0.46</v>
+      </c>
+      <c r="D161" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F161" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="18">
+      <c r="A162" s="28"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+    </row>
+    <row r="163" spans="1:7" ht="18">
+      <c r="A163" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="18">
+      <c r="A164" s="28"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+    </row>
+    <row r="165" spans="1:7" ht="18">
+      <c r="A165" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B165" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18">
+      <c r="A166" s="28"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+    </row>
+    <row r="167" spans="1:7" ht="18">
+      <c r="A167" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F167" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18">
+      <c r="A168" s="28"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+    </row>
+    <row r="169" spans="1:7" ht="18">
+      <c r="A169" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D169" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F169" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G169" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="28"/>
+      <c r="B170" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="C170" s="19">
+        <v>2</v>
+      </c>
+      <c r="D170" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F170" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="18">
+      <c r="A171" s="28"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+    </row>
+    <row r="172" spans="1:7" ht="36">
+      <c r="A172" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E172" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F172" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G172" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="18" customHeight="1">
+      <c r="A173" s="28"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+    </row>
+    <row r="174" spans="1:7" ht="18">
+      <c r="A174" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E174" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F174" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G174" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18">
+      <c r="A175" s="28"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+    </row>
+    <row r="176" spans="1:7" ht="18">
+      <c r="A176" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F176" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G176" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18">
+      <c r="A177" s="28"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+    </row>
+    <row r="178" spans="1:7" ht="36">
+      <c r="A178" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F178" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G178" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18" customHeight="1">
+      <c r="A179" s="28"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+    </row>
+    <row r="180" spans="1:7" ht="36">
+      <c r="A180" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F180" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G180" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18" customHeight="1">
+      <c r="A181" s="28"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+    </row>
+    <row r="182" spans="1:7" ht="19" thickBot="1">
+      <c r="A182" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F182" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="19" thickBot="1">
+      <c r="A183" s="37"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+    </row>
+    <row r="184" spans="1:7" ht="18">
+      <c r="A184" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F184" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18">
+      <c r="A185" s="28"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+    </row>
+    <row r="186" spans="1:7" ht="18">
+      <c r="A186" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="28">
+        <v>1.46</v>
+      </c>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18">
+      <c r="A187" s="28"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+    </row>
+    <row r="188" spans="1:7" ht="18">
+      <c r="A188" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="28">
+        <v>0.24</v>
+      </c>
+      <c r="C188" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="D188" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E188" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F188" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18">
+      <c r="A189" s="28"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+    </row>
+    <row r="190" spans="1:7" ht="18">
+      <c r="A190" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F190" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="28"/>
+      <c r="B191" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D191" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F191" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G191" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18">
+      <c r="A192" s="28"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+    </row>
+    <row r="193" spans="1:7" ht="18">
+      <c r="A193" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" s="28">
+        <v>0.59</v>
+      </c>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F193" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G193" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="28"/>
+      <c r="B194" s="28">
+        <v>0.43</v>
+      </c>
+      <c r="C194" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="D194" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="E194" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F194" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G194" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="18">
+      <c r="A195" s="28"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+    </row>
+    <row r="196" spans="1:7" ht="36">
+      <c r="A196" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B196" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F196" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G196" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="18" customHeight="1">
+      <c r="A197" s="28"/>
+      <c r="B197" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="C197" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="D197" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="E197" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F197" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="18">
+      <c r="A198" s="28"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="27"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+    </row>
+    <row r="199" spans="1:7" ht="36">
+      <c r="A199" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B199" s="28">
+        <v>1.64</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E199" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F199" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G199" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="18" customHeight="1">
+      <c r="A200" s="28"/>
+      <c r="B200" s="28">
+        <v>2.29</v>
+      </c>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F200" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G200" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="18">
+      <c r="A201" s="28"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+    </row>
+    <row r="202" spans="1:7" ht="18">
+      <c r="A202" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B202" s="28">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F202" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G202" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="16" thickBot="1">
+      <c r="A203" s="28"/>
+      <c r="B203" s="37">
+        <v>0.91</v>
+      </c>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F203" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="19" thickBot="1">
+      <c r="A204" s="37"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+    </row>
+    <row r="205" spans="1:7" ht="18">
+      <c r="A205" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B205" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F205" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G205" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="18">
+      <c r="A206" s="28"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+    </row>
+    <row r="207" spans="1:7" ht="36">
+      <c r="A207" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B207" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D207" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E207" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F207" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G207" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="18" customHeight="1">
+      <c r="A208" s="28"/>
+      <c r="B208" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F208" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="18">
+      <c r="A209" s="28"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+    </row>
+    <row r="210" spans="1:7" ht="18">
+      <c r="A210" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B210" s="28">
+        <v>0.44</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E210" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F210" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G210" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="28"/>
+      <c r="B211" s="28">
+        <v>0.51</v>
+      </c>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F211" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G211" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="18">
+      <c r="A212" s="28"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+    </row>
+    <row r="213" spans="1:7" ht="18">
+      <c r="A213" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B213" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="C213" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="D213" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="E213" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F213" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G213" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="18">
+      <c r="A214" s="28"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+    </row>
+    <row r="215" spans="1:7" ht="72">
+      <c r="A215" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B215" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F215" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G215" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="18" customHeight="1">
+      <c r="A216" s="28"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+    </row>
+    <row r="217" spans="1:7" ht="18">
+      <c r="A217" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B217" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F217" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G217" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="18">
+      <c r="A218" s="28"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27"/>
+      <c r="G218" s="27"/>
+    </row>
+    <row r="219" spans="1:7" ht="18">
+      <c r="A219" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B219" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="C219" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="D219" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F219" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G219" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="18">
+      <c r="A220" s="28"/>
+      <c r="B220" s="27"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="27"/>
+      <c r="G220" s="27"/>
+    </row>
+    <row r="221" spans="1:7" ht="18">
+      <c r="A221" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B221" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D221" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F221" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G221" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="18">
+      <c r="A222" s="28"/>
+      <c r="B222" s="27"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="27"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="27"/>
+      <c r="G222" s="27"/>
+    </row>
+    <row r="223" spans="1:7" ht="19" thickBot="1">
+      <c r="A223" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B223" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C223" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="D223" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F223" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G223" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="19" thickBot="1">
+      <c r="A224" s="37"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
+      <c r="F224" s="27"/>
+      <c r="G224" s="27"/>
+    </row>
+    <row r="225" spans="1:7" ht="18">
+      <c r="A225" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B225" s="28">
+        <v>0.53</v>
+      </c>
+      <c r="C225" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="D225" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E225" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F225" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G225" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="18">
+      <c r="A226" s="28"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
+      <c r="G226" s="27"/>
+    </row>
+    <row r="227" spans="1:7" ht="18">
+      <c r="A227" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B227" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F227" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G227" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="18">
+      <c r="A228" s="28"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="27"/>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27"/>
+      <c r="G228" s="27"/>
+    </row>
+    <row r="229" spans="1:7" ht="18">
+      <c r="A229" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B229" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="C229" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="D229" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="E229" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F229" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G229" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="28"/>
+      <c r="B230" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="C230" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D230" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="E230" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F230" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G230" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="18">
+      <c r="A231" s="28"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+    </row>
+    <row r="232" spans="1:7" ht="36">
+      <c r="A232" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B232" s="28">
+        <v>2.7</v>
+      </c>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F232" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G232" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="18" customHeight="1">
+      <c r="A233" s="28"/>
+      <c r="B233" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="C233" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="D233" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="E233" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F233" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G233" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="18">
+      <c r="A234" s="28"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="27"/>
+      <c r="D234" s="27"/>
+      <c r="E234" s="27"/>
+      <c r="F234" s="27"/>
+      <c r="G234" s="27"/>
+    </row>
+    <row r="235" spans="1:7" ht="18">
+      <c r="A235" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B235" s="28">
+        <v>0.52</v>
+      </c>
+      <c r="C235" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="D235" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E235" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F235" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G235" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="18">
+      <c r="A236" s="28"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="27"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+    </row>
+    <row r="237" spans="1:7" ht="18">
+      <c r="A237" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B237" s="28">
+        <v>1.53</v>
+      </c>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F237" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G237" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="18">
+      <c r="A238" s="28"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="27"/>
+      <c r="G238" s="27"/>
+    </row>
+    <row r="239" spans="1:7" ht="18">
+      <c r="A239" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B239" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F239" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G239" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="28"/>
+      <c r="B240" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F240" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G240" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="18">
+      <c r="A241" s="28"/>
+      <c r="B241" s="27"/>
+      <c r="C241" s="27"/>
+      <c r="D241" s="27"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="27"/>
+      <c r="G241" s="27"/>
+    </row>
+    <row r="242" spans="1:7" ht="18">
+      <c r="A242" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B242" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F242" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G242" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="28"/>
+      <c r="B243" s="28">
+        <v>0.49</v>
+      </c>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F243" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G243" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="18">
+      <c r="A244" s="28"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="27"/>
+      <c r="D244" s="27"/>
+      <c r="E244" s="27"/>
+      <c r="F244" s="27"/>
+      <c r="G244" s="27"/>
+    </row>
+    <row r="245" spans="1:7" ht="18">
+      <c r="A245" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B245" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F245" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G245" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="28"/>
+      <c r="B246" s="28">
+        <v>0.32</v>
+      </c>
+      <c r="C246" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D246" s="19">
+        <v>0.34</v>
+      </c>
+      <c r="E246" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F246" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G246" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="18">
+      <c r="A247" s="28"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="27"/>
+      <c r="D247" s="27"/>
+      <c r="E247" s="27"/>
+      <c r="F247" s="27"/>
+      <c r="G247" s="27"/>
+    </row>
+    <row r="248" spans="1:7" ht="18">
+      <c r="A248" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B248" s="28">
+        <v>0.27</v>
+      </c>
+      <c r="C248" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D248" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E248" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F248" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G248" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="28"/>
+      <c r="B249" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C249" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="D249" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="E249" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F249" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G249" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="18">
+      <c r="A250" s="28"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="27"/>
+      <c r="D250" s="27"/>
+      <c r="E250" s="27"/>
+      <c r="F250" s="27"/>
+      <c r="G250" s="27"/>
+    </row>
+    <row r="251" spans="1:7" ht="18">
+      <c r="A251" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B251" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="C251" s="30">
+        <v>0.04</v>
+      </c>
+      <c r="D251" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="E251" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F251" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G251" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="29"/>
+      <c r="B252" s="31"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F252" s="32"/>
+      <c r="G252" s="32"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="31"/>
+      <c r="B253" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F253" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G253" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="18">
+      <c r="A254" s="28"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="27"/>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
+      <c r="F254" s="27"/>
+      <c r="G254" s="27"/>
+    </row>
+    <row r="255" spans="1:7" ht="18">
+      <c r="A255" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B255" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F255" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G255" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="18">
+      <c r="A256" s="28"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="27"/>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27"/>
+      <c r="F256" s="27"/>
+      <c r="G256" s="27"/>
+    </row>
+    <row r="257" spans="1:7" ht="18">
+      <c r="A257" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B257" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="C257" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D257" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E257" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F257" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G257" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="28"/>
+      <c r="B258" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="C258" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="D258" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="E258" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F258" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G258" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="18">
+      <c r="A259" s="28"/>
+      <c r="B259" s="27"/>
+      <c r="C259" s="27"/>
+      <c r="D259" s="27"/>
+      <c r="E259" s="27"/>
+      <c r="F259" s="27"/>
+      <c r="G259" s="27"/>
+    </row>
+    <row r="260" spans="1:7" ht="18">
+      <c r="A260" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B260" s="28">
+        <v>0.48</v>
+      </c>
+      <c r="C260" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="D260" s="19">
+        <v>0.54</v>
+      </c>
+      <c r="E260" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F260" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G260" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="28"/>
+      <c r="B261" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="C261" s="19">
+        <v>0.38</v>
+      </c>
+      <c r="D261" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="E261" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F261" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G261" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="18">
+      <c r="A262" s="28"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="27"/>
+      <c r="D262" s="27"/>
+      <c r="E262" s="27"/>
+      <c r="F262" s="27"/>
+      <c r="G262" s="27"/>
+    </row>
+    <row r="263" spans="1:7" ht="18">
+      <c r="A263" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B263" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="C263" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D263" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E263" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F263" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G263" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="28"/>
+      <c r="B264" s="28">
+        <v>0.66</v>
+      </c>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F264" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G264" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="18">
+      <c r="A265" s="28"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="27"/>
+      <c r="D265" s="27"/>
+      <c r="E265" s="27"/>
+      <c r="F265" s="27"/>
+      <c r="G265" s="27"/>
+    </row>
+    <row r="266" spans="1:7" ht="18">
+      <c r="A266" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B266" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G266" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="18">
+      <c r="A267" s="28"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="27"/>
+      <c r="D267" s="27"/>
+      <c r="E267" s="27"/>
+      <c r="F267" s="27"/>
+      <c r="G267" s="27"/>
+    </row>
+    <row r="268" spans="1:7" ht="18">
+      <c r="A268" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B268" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E268" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F268" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G268" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="28"/>
+      <c r="B269" s="28">
+        <v>0.24</v>
+      </c>
+      <c r="C269" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="D269" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G269" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="18">
+      <c r="A270" s="28"/>
+      <c r="B270" s="27"/>
+      <c r="C270" s="27"/>
+      <c r="D270" s="27"/>
+      <c r="E270" s="27"/>
+      <c r="F270" s="27"/>
+      <c r="G270" s="27"/>
+    </row>
+    <row r="271" spans="1:7" ht="18">
+      <c r="A271" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B271" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G271" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="28"/>
+      <c r="B272" s="28">
+        <v>0.59</v>
+      </c>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F272" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G272" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="18">
+      <c r="A273" s="28"/>
+      <c r="B273" s="27"/>
+      <c r="C273" s="27"/>
+      <c r="D273" s="27"/>
+      <c r="E273" s="27"/>
+      <c r="F273" s="27"/>
+      <c r="G273" s="27"/>
+    </row>
+    <row r="274" spans="1:7" ht="18">
+      <c r="A274" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B274" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="C274" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="D274" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="E274" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F274" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G274" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="28"/>
+      <c r="B275" s="28">
+        <v>0.62</v>
+      </c>
+      <c r="C275" s="19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D275" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F275" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G275" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="18">
+      <c r="A276" s="28"/>
+      <c r="B276" s="27"/>
+      <c r="C276" s="27"/>
+      <c r="D276" s="27"/>
+      <c r="E276" s="27"/>
+      <c r="F276" s="27"/>
+      <c r="G276" s="27"/>
+    </row>
+    <row r="277" spans="1:7" ht="18">
+      <c r="A277" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B277" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C277" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G277" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="18">
+      <c r="A278" s="28"/>
+      <c r="B278" s="27"/>
+      <c r="C278" s="27"/>
+      <c r="D278" s="27"/>
+      <c r="E278" s="27"/>
+      <c r="F278" s="27"/>
+      <c r="G278" s="27"/>
+    </row>
+    <row r="279" spans="1:7" ht="18">
+      <c r="A279" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B279" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F279" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G279" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="28"/>
+      <c r="B280" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="C280" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="D280" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="E280" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F280" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G280" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="18">
+      <c r="A281" s="28"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="27"/>
+      <c r="D281" s="27"/>
+      <c r="E281" s="27"/>
+      <c r="F281" s="27"/>
+      <c r="G281" s="27"/>
+    </row>
+    <row r="282" spans="1:7" ht="18">
+      <c r="A282" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B282" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C282" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="D282" s="19">
+        <v>0.39</v>
+      </c>
+      <c r="E282" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F282" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G282" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="28"/>
+      <c r="B283" s="28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D283" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F283" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G283" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="18">
+      <c r="A284" s="28"/>
+      <c r="B284" s="27"/>
+      <c r="C284" s="27"/>
+      <c r="D284" s="27"/>
+      <c r="E284" s="27"/>
+      <c r="F284" s="27"/>
+      <c r="G284" s="27"/>
+    </row>
+    <row r="285" spans="1:7" ht="18">
+      <c r="A285" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B285" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C285" s="21"/>
+      <c r="D285" s="21"/>
+      <c r="E285" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F285" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G285" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="28"/>
+      <c r="B286" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C286" s="21"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F286" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G286" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="18">
+      <c r="A287" s="28"/>
+      <c r="B287" s="27"/>
+      <c r="C287" s="27"/>
+      <c r="D287" s="27"/>
+      <c r="E287" s="27"/>
+      <c r="F287" s="27"/>
+      <c r="G287" s="27"/>
+    </row>
+    <row r="288" spans="1:7" ht="18">
+      <c r="A288" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B288" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F288" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G288" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="24"/>
+      <c r="B289" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F289" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G289" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="18">
+      <c r="A290" s="24"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="27"/>
+      <c r="D290" s="27"/>
+      <c r="E290" s="27"/>
+      <c r="F290" s="27"/>
+      <c r="G290" s="27"/>
+    </row>
+    <row r="291" spans="1:7" ht="18">
+      <c r="A291" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B291" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F291" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G291" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="24"/>
+      <c r="B292" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="C292" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D292" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="E292" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F292" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G292" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="18">
+      <c r="A293" s="24"/>
+      <c r="B293" s="27"/>
+      <c r="C293" s="27"/>
+      <c r="D293" s="27"/>
+      <c r="E293" s="27"/>
+      <c r="F293" s="27"/>
+      <c r="G293" s="27"/>
+    </row>
+    <row r="294" spans="1:7" ht="18">
+      <c r="A294" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B294" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="C294" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D294" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E294" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F294" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G294" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="24"/>
+      <c r="B295" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="C295" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="D295" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E295" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F295" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G295" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="18">
+      <c r="A296" s="24"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
+      <c r="D296" s="27"/>
+      <c r="E296" s="27"/>
+      <c r="F296" s="27"/>
+      <c r="G296" s="27"/>
+    </row>
+    <row r="297" spans="1:7" ht="18">
+      <c r="A297" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B297" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C297" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D297" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E297" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F297" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G297" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="18">
+      <c r="A298" s="28"/>
+      <c r="B298" s="27"/>
+      <c r="C298" s="27"/>
+      <c r="D298" s="27"/>
+      <c r="E298" s="27"/>
+      <c r="F298" s="27"/>
+      <c r="G298" s="27"/>
+    </row>
+    <row r="299" spans="1:7" ht="18">
+      <c r="A299" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B299" s="28">
+        <v>0.26</v>
+      </c>
+      <c r="C299" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="D299" s="19">
+        <v>0.31</v>
+      </c>
+      <c r="E299" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F299" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G299" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="28"/>
+      <c r="B300" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="C300" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="D300" s="19">
+        <v>0.27</v>
+      </c>
+      <c r="E300" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F300" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G300" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="18">
+      <c r="A301" s="28"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="27"/>
+      <c r="D301" s="27"/>
+      <c r="E301" s="27"/>
+      <c r="F301" s="27"/>
+      <c r="G301" s="27"/>
+    </row>
+    <row r="302" spans="1:7" ht="18">
+      <c r="A302" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B302" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="C302" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="D302" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E302" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F302" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G302" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="28"/>
+      <c r="B303" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="C303" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D303" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E303" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F303" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G303" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="18">
+      <c r="A304" s="28"/>
+      <c r="B304" s="27"/>
+      <c r="C304" s="27"/>
+      <c r="D304" s="27"/>
+      <c r="E304" s="27"/>
+      <c r="F304" s="27"/>
+      <c r="G304" s="27"/>
+    </row>
+    <row r="305" spans="1:7" ht="18">
+      <c r="A305" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B305" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C305" s="21"/>
+      <c r="D305" s="21"/>
+      <c r="E305" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F305" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G305" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="28"/>
+      <c r="B306" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C306" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D306" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E306" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F306" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G306" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="18">
+      <c r="A307" s="28"/>
+      <c r="B307" s="27"/>
+      <c r="C307" s="27"/>
+      <c r="D307" s="27"/>
+      <c r="E307" s="27"/>
+      <c r="F307" s="27"/>
+      <c r="G307" s="27"/>
+    </row>
+    <row r="308" spans="1:7" ht="36">
+      <c r="A308" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B308" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C308" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D308" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E308" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F308" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G308" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="18" customHeight="1">
+      <c r="A309" s="28"/>
+      <c r="B309" s="27"/>
+      <c r="C309" s="27"/>
+      <c r="D309" s="27"/>
+      <c r="E309" s="27"/>
+      <c r="F309" s="27"/>
+      <c r="G309" s="27"/>
+    </row>
+    <row r="310" spans="1:7" ht="72">
+      <c r="A310" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B310" s="29">
+        <v>0.76</v>
+      </c>
+      <c r="C310" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="D310" s="30">
+        <v>0.78</v>
+      </c>
+      <c r="E310" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F310" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G310" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="18" customHeight="1">
+      <c r="A311" s="29"/>
+      <c r="B311" s="31"/>
+      <c r="C311" s="32"/>
+      <c r="D311" s="32"/>
+      <c r="E311" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F311" s="32"/>
+      <c r="G311" s="32"/>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="31"/>
+      <c r="B312" s="29">
+        <v>0.73</v>
+      </c>
+      <c r="C312" s="30">
+        <v>0.72</v>
+      </c>
+      <c r="D312" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="E312" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F312" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G312" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="29"/>
+      <c r="B313" s="31"/>
+      <c r="C313" s="32"/>
+      <c r="D313" s="32"/>
+      <c r="E313" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F313" s="32"/>
+      <c r="G313" s="32"/>
+    </row>
+    <row r="314" spans="1:7" ht="18">
+      <c r="A314" s="31"/>
+      <c r="B314" s="27"/>
+      <c r="C314" s="27"/>
+      <c r="D314" s="27"/>
+      <c r="E314" s="27"/>
+      <c r="F314" s="27"/>
+      <c r="G314" s="27"/>
+    </row>
+    <row r="315" spans="1:7" ht="72">
+      <c r="A315" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B315" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="C315" s="30">
+        <v>0.12</v>
+      </c>
+      <c r="D315" s="30">
+        <v>0.18</v>
+      </c>
+      <c r="E315" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F315" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G315" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="18" customHeight="1">
+      <c r="A316" s="30"/>
+      <c r="B316" s="32"/>
+      <c r="C316" s="32"/>
+      <c r="D316" s="32"/>
+      <c r="E316" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F316" s="32"/>
+      <c r="G316" s="32"/>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="32"/>
+      <c r="B317" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="C317" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D317" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E317" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F317" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G317" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="29"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="32"/>
+      <c r="D318" s="32"/>
+      <c r="E318" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F318" s="32"/>
+      <c r="G318" s="32"/>
+    </row>
+    <row r="319" spans="1:7" ht="18">
+      <c r="A319" s="31"/>
+      <c r="B319" s="27"/>
+      <c r="C319" s="27"/>
+      <c r="D319" s="27"/>
+      <c r="E319" s="27"/>
+      <c r="F319" s="27"/>
+      <c r="G319" s="27"/>
+    </row>
+    <row r="320" spans="1:7" ht="54">
+      <c r="A320" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B320" s="29">
+        <v>1.71</v>
+      </c>
+      <c r="C320" s="30">
+        <v>1.67</v>
+      </c>
+      <c r="D320" s="30">
+        <v>1.75</v>
+      </c>
+      <c r="E320" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F320" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G320" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="18" customHeight="1">
+      <c r="A321" s="29"/>
+      <c r="B321" s="31"/>
+      <c r="C321" s="32"/>
+      <c r="D321" s="32"/>
+      <c r="E321" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F321" s="32"/>
+      <c r="G321" s="32"/>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="31"/>
+      <c r="B322" s="28">
+        <v>1.62</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D322" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E322" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F322" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G322" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="18">
+      <c r="A323" s="28"/>
+      <c r="B323" s="27"/>
+      <c r="C323" s="27"/>
+      <c r="D323" s="27"/>
+      <c r="E323" s="27"/>
+      <c r="F323" s="27"/>
+      <c r="G323" s="27"/>
+    </row>
+    <row r="324" spans="1:7" ht="18">
+      <c r="A324" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B324" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D324" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E324" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F324" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G324" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="28"/>
+      <c r="B325" s="28">
+        <v>3.4</v>
+      </c>
+      <c r="C325" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="D325" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="E325" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F325" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G325" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="18">
+      <c r="A326" s="28"/>
+      <c r="B326" s="27"/>
+      <c r="C326" s="27"/>
+      <c r="D326" s="27"/>
+      <c r="E326" s="27"/>
+      <c r="F326" s="27"/>
+      <c r="G326" s="27"/>
+    </row>
+    <row r="327" spans="1:7" ht="18">
+      <c r="A327" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B327" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D327" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E327" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F327" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G327" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="28"/>
+      <c r="B328" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C328" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D328" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E328" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F328" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G328" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="28"/>
+    </row>
+    <row r="331" spans="1:7" ht="15" customHeight="1"/>
+    <row r="332" spans="1:7" ht="15" customHeight="1"/>
+    <row r="333" spans="1:7" ht="15" customHeight="1"/>
+    <row r="334" spans="1:7" ht="15" customHeight="1"/>
+    <row r="335" spans="1:7" ht="15" customHeight="1"/>
+    <row r="336" spans="1:7" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="23" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+  </sheetData>
+  <autoFilter ref="A1:G17"/>
+  <hyperlinks>
+    <hyperlink ref="E252" location="comment_year" display="5"/>
+    <hyperlink ref="E311" location="comment_year" display="1"/>
+    <hyperlink ref="E313" location="comment_year" display="6"/>
+    <hyperlink ref="E316" location="comment_year" display="3"/>
+    <hyperlink ref="E318" location="comment_year" display="2"/>
+    <hyperlink ref="E321" location="comment_year" display="4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/2 - Heroin/h.xlsx
+++ b/2 - Heroin/h.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21140" tabRatio="660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26500" windowHeight="21140" tabRatio="660" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Prevalence" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Prevalence!$A$1:$G$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Prevalence!$A$1:$L$137</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="444">
   <si>
     <t>RACE</t>
   </si>
@@ -786,6 +786,633 @@
   </si>
   <si>
     <t>Opioid Use Prevalence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Country', </t>
+  </si>
+  <si>
+    <t>Prevalence]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Kenya', </t>
+  </si>
+  <si>
+    <t>0.21],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mauritius', </t>
+  </si>
+  <si>
+    <t>1.29],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Rwanda', </t>
+  </si>
+  <si>
+    <t>0.14],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Seychelles', </t>
+  </si>
+  <si>
+    <t>2.3],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Somalia', </t>
+  </si>
+  <si>
+    <t>0.16],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Uganda', </t>
+  </si>
+  <si>
+    <t>0.05],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Algeria', </t>
+  </si>
+  <si>
+    <t>0.06],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Egypt', </t>
+  </si>
+  <si>
+    <t>0.44],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Libya', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Morocco', </t>
+  </si>
+  <si>
+    <t>0.08],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Tunisia', </t>
+  </si>
+  <si>
+    <t>0.12],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['South Africa', </t>
+  </si>
+  <si>
+    <t>0.5],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Swaziland', </t>
+  </si>
+  <si>
+    <t>0.17],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zambia', </t>
+  </si>
+  <si>
+    <t>0.37],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zimbabwe', </t>
+  </si>
+  <si>
+    <t>0.04],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Central African Republic', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Chad', </t>
+  </si>
+  <si>
+    <t>0.22],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Cabo Verde', </t>
+  </si>
+  <si>
+    <t>0.18],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Ghana', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Liberia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Niger', </t>
+  </si>
+  <si>
+    <t>0.2],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Nigeria', </t>
+  </si>
+  <si>
+    <t>0.7],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Congo', </t>
+  </si>
+  <si>
+    <t>0.13],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Senegal', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Sierra Leone', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Democratic Republic of the Congo', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Barbados', </t>
+  </si>
+  <si>
+    <t>0.23],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bermuda', </t>
+  </si>
+  <si>
+    <t>0.15],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bahamas', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Dominican Republic', </t>
+  </si>
+  <si>
+    <t>0.07],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Haiti', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Jamaica', </t>
+  </si>
+  <si>
+    <t>1],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Belize', </t>
+  </si>
+  <si>
+    <t>0.3],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Costa Rica', </t>
+  </si>
+  <si>
+    <t>0.63],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['El Salvador', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Guatemala', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Honduras', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Nicaragua', </t>
+  </si>
+  <si>
+    <t>0.02],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Canada', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mexico', </t>
+  </si>
+  <si>
+    <t>0.38],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['United States of America', </t>
+  </si>
+  <si>
+    <t>6.1],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Argentina', </t>
+  </si>
+  <si>
+    <t>0.1],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bolivia (Plurinational State of)', </t>
+  </si>
+  <si>
+    <t>0.6],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Brazil', </t>
+  </si>
+  <si>
+    <t>1.45],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Chile', </t>
+  </si>
+  <si>
+    <t>0.28],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Colombia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Ecuador', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Paraguay', </t>
+  </si>
+  <si>
+    <t>0.03],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Peru', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Suriname', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Uruguay', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Venezuela (Bolivarian Republic of)', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Armenia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Azerbaijan', </t>
+  </si>
+  <si>
+    <t>1.5],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Georgia', </t>
+  </si>
+  <si>
+    <t>1.36],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Kazakhstan', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Kyrgyzstan', </t>
+  </si>
+  <si>
+    <t>0.8],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Tajikistan', </t>
+  </si>
+  <si>
+    <t>0.54],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Turkmenistan', </t>
+  </si>
+  <si>
+    <t>0.32],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Uzbekistan', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Cambodia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['China', </t>
+  </si>
+  <si>
+    <t>0.19],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['China, Hong Kong SAR', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Indonesia', </t>
+  </si>
+  <si>
+    <t>0.11],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Lao People's Democratic Republic', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['China, Macao SAR', </t>
+  </si>
+  <si>
+    <t>1.12],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Malaysia', </t>
+  </si>
+  <si>
+    <t>0.94],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mongolia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Myanmar', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Philippines', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Republic of Korea', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Singapore', </t>
+  </si>
+  <si>
+    <t>0.33],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Thailand', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Timor-Leste', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Viet Nam', </t>
+  </si>
+  <si>
+    <t>0.53],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Taiwan Province of China', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Afghanistan', </t>
+  </si>
+  <si>
+    <t>2.92],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Iran (Islamic Republic of)', </t>
+  </si>
+  <si>
+    <t>2.27],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Israel', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Kuwait', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Lebanon', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Oman', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Pakistan', </t>
+  </si>
+  <si>
+    <t>2.4],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Saudi Arabia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Syrian Arab Republic', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['United Arab Emirates', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bangladesh', </t>
+  </si>
+  <si>
+    <t>0.4],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Maldives', </t>
+  </si>
+  <si>
+    <t>1.46],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Nepal', </t>
+  </si>
+  <si>
+    <t>0.24],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Sri Lanka', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Belarus', </t>
+  </si>
+  <si>
+    <t>0.59],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Republic of Moldova', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Russian Federation', </t>
+  </si>
+  <si>
+    <t>1.64],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Ukraine', </t>
+  </si>
+  <si>
+    <t>0.91],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Albania', </t>
+  </si>
+  <si>
+    <t>0.45],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bosnia and Herzegovina', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bulgaria', </t>
+  </si>
+  <si>
+    <t>0.51],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Croatia', </t>
+  </si>
+  <si>
+    <t>0.36],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['The former Yugoslav Republic of Macedonia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Romania', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Turkey', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Serbia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Austria', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Belgium', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Cyprus', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Czech Republic', </t>
+  </si>
+  <si>
+    <t>2.7],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Denmark', </t>
+  </si>
+  <si>
+    <t>0.52],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Estonia', </t>
+  </si>
+  <si>
+    <t>1.53],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Finland', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['France', </t>
+  </si>
+  <si>
+    <t>0.49],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Germany', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Greece', </t>
+  </si>
+  <si>
+    <t>0.29],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Hungary', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Iceland', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Ireland', </t>
+  </si>
+  <si>
+    <t>0.72],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Italy', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Latvia', </t>
+  </si>
+  <si>
+    <t>0.66],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Liechtenstein', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Lithuania', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Luxembourg', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Malta', </t>
+  </si>
+  <si>
+    <t>0.62],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Monaco', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Netherlands', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Norway', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Poland', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Portugal', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Slovenia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Slovakia', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Spain', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Sweden', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Switzerland', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['United Kingdom (England and Wales)', </t>
+  </si>
+  <si>
+    <t>0.73],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['United Kingdom (Northern Ireland)', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['United Kingdom (Scotland)', </t>
+  </si>
+  <si>
+    <t>1.71],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Australia', </t>
+  </si>
+  <si>
+    <t>3.4],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['New Zealand', </t>
+  </si>
+  <si>
+    <t>1.1],</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ],</t>
   </si>
 </sst>
 </file>
@@ -885,7 +1512,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -916,8 +1543,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1073,8 +1706,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1134,8 +1776,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1211,8 +1877,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="83">
     <cellStyle name="Comma 2" xfId="46"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1242,6 +1917,18 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1270,6 +1957,18 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="45"/>
   </cellStyles>
@@ -1602,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2436,11 +3135,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2451,11 +3150,12 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" customHeight="1">
+    <row r="1" spans="1:12" ht="28">
       <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
@@ -2477,8 +3177,21 @@
       <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="33" t="s">
         <v>52</v>
       </c>
@@ -2500,8 +3213,26 @@
       <c r="G2" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="37" t="str">
+        <f>"'"</f>
+        <v>'</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("[",H2,A2,H2,", ")</f>
+        <v xml:space="preserve">['Kenya', </v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE(B2,"],")</f>
+        <v>0.21],</v>
+      </c>
+      <c r="K2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="33" t="s">
         <v>58</v>
       </c>
@@ -2519,8 +3250,26 @@
       <c r="G3" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="37" t="str">
+        <f t="shared" ref="H3:H66" si="0">"'"</f>
+        <v>'</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="1">CONCATENATE("[",H3,A3,H3,", ")</f>
+        <v xml:space="preserve">['Mauritius', </v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="2">CONCATENATE(B3,"],")</f>
+        <v>1.29],</v>
+      </c>
+      <c r="K3" t="s">
+        <v>239</v>
+      </c>
+      <c r="L3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="33" t="s">
         <v>63</v>
       </c>
@@ -2538,8 +3287,26 @@
       <c r="G4" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Rwanda', </v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>0.14],</v>
+      </c>
+      <c r="K4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="33" t="s">
         <v>65</v>
       </c>
@@ -2557,8 +3324,26 @@
       <c r="G5" s="26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Seychelles', </v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>2.3],</v>
+      </c>
+      <c r="K5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="33" t="s">
         <v>68</v>
       </c>
@@ -2576,8 +3361,26 @@
       <c r="G6" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Somalia', </v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>0.16],</v>
+      </c>
+      <c r="K6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
@@ -2595,8 +3398,26 @@
       <c r="G7" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Uganda', </v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>0.05],</v>
+      </c>
+      <c r="K7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
@@ -2618,8 +3439,26 @@
       <c r="G8" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Algeria', </v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>0.06],</v>
+      </c>
+      <c r="K8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="33" t="s">
         <v>74</v>
       </c>
@@ -2641,8 +3480,26 @@
       <c r="G9" s="26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Egypt', </v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>0.44],</v>
+      </c>
+      <c r="K9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="33" t="s">
         <v>77</v>
       </c>
@@ -2660,8 +3517,26 @@
       <c r="G10" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Libya', </v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>0.14],</v>
+      </c>
+      <c r="K10" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="33" t="s">
         <v>78</v>
       </c>
@@ -2679,8 +3554,26 @@
       <c r="G11" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Morocco', </v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>0.08],</v>
+      </c>
+      <c r="K11" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="33" t="s">
         <v>80</v>
       </c>
@@ -2698,8 +3591,26 @@
       <c r="G12" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Tunisia', </v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>0.12],</v>
+      </c>
+      <c r="K12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="33" t="s">
         <v>81</v>
       </c>
@@ -2717,8 +3628,26 @@
       <c r="G13" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['South Africa', </v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5],</v>
+      </c>
+      <c r="K13" t="s">
+        <v>258</v>
+      </c>
+      <c r="L13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="33" t="s">
         <v>83</v>
       </c>
@@ -2736,8 +3665,26 @@
       <c r="G14" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Swaziland', </v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>0.17],</v>
+      </c>
+      <c r="K14" t="s">
+        <v>260</v>
+      </c>
+      <c r="L14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="33" t="s">
         <v>84</v>
       </c>
@@ -2755,8 +3702,26 @@
       <c r="G15" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Zambia', </v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>0.37],</v>
+      </c>
+      <c r="K15" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="33" t="s">
         <v>85</v>
       </c>
@@ -2774,8 +3739,26 @@
       <c r="G16" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Zimbabwe', </v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>0.04],</v>
+      </c>
+      <c r="K16" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="33" t="s">
         <v>86</v>
       </c>
@@ -2793,8 +3776,26 @@
       <c r="G17" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Central African Republic', </v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>0.05],</v>
+      </c>
+      <c r="K17" t="s">
+        <v>266</v>
+      </c>
+      <c r="L17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="33" t="s">
         <v>87</v>
       </c>
@@ -2812,8 +3813,26 @@
       <c r="G18" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Chad', </v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>0.22],</v>
+      </c>
+      <c r="K18" t="s">
+        <v>267</v>
+      </c>
+      <c r="L18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="33" t="s">
         <v>88</v>
       </c>
@@ -2831,8 +3850,26 @@
       <c r="G19" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Cabo Verde', </v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>0.18],</v>
+      </c>
+      <c r="K19" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="33" t="s">
         <v>89</v>
       </c>
@@ -2850,8 +3887,26 @@
       <c r="G20" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Ghana', </v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>0.14],</v>
+      </c>
+      <c r="K20" t="s">
+        <v>271</v>
+      </c>
+      <c r="L20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="33" t="s">
         <v>91</v>
       </c>
@@ -2869,8 +3924,26 @@
       <c r="G21" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="28">
+      <c r="H21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Liberia', </v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>0.17],</v>
+      </c>
+      <c r="K21" t="s">
+        <v>272</v>
+      </c>
+      <c r="L21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>92</v>
       </c>
@@ -2888,8 +3961,26 @@
       <c r="G22" s="26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Niger', </v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K22" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="33" t="s">
         <v>93</v>
       </c>
@@ -2911,8 +4002,26 @@
       <c r="G23" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Nigeria', </v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>0.7],</v>
+      </c>
+      <c r="K23" t="s">
+        <v>275</v>
+      </c>
+      <c r="L23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="33" t="s">
         <v>94</v>
       </c>
@@ -2930,8 +4039,26 @@
       <c r="G24" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Congo', </v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.13],</v>
+      </c>
+      <c r="K24" t="s">
+        <v>277</v>
+      </c>
+      <c r="L24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="33" t="s">
         <v>95</v>
       </c>
@@ -2949,8 +4076,26 @@
       <c r="G25" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Senegal', </v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>0.08],</v>
+      </c>
+      <c r="K25" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="33" t="s">
         <v>96</v>
       </c>
@@ -2968,8 +4113,26 @@
       <c r="G26" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="23" customHeight="1">
+      <c r="H26" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Sierra Leone', </v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>0.17],</v>
+      </c>
+      <c r="K26" t="s">
+        <v>280</v>
+      </c>
+      <c r="L26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="33" t="s">
         <v>97</v>
       </c>
@@ -2987,8 +4150,26 @@
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Democratic Republic of the Congo', </v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>0.17],</v>
+      </c>
+      <c r="K27" t="s">
+        <v>281</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="33" t="s">
         <v>98</v>
       </c>
@@ -3010,8 +4191,26 @@
       <c r="G28" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Barbados', </v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>0.23],</v>
+      </c>
+      <c r="K28" t="s">
+        <v>282</v>
+      </c>
+      <c r="L28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="33" t="s">
         <v>99</v>
       </c>
@@ -3033,8 +4232,26 @@
       <c r="G29" s="26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Bermuda', </v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>0.15],</v>
+      </c>
+      <c r="K29" t="s">
+        <v>284</v>
+      </c>
+      <c r="L29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="33" t="s">
         <v>101</v>
       </c>
@@ -3052,8 +4269,26 @@
       <c r="G30" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Bahamas', </v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>0.22],</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="33" t="s">
         <v>102</v>
       </c>
@@ -3075,8 +4310,26 @@
       <c r="G31" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1">
+      <c r="H31" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Dominican Republic', </v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>0.07],</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="33" t="s">
         <v>103</v>
       </c>
@@ -3098,8 +4351,26 @@
       <c r="G32" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Haiti', </v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="33" t="s">
         <v>104</v>
       </c>
@@ -3121,8 +4392,26 @@
       <c r="G33" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Jamaica', </v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v>1],</v>
+      </c>
+      <c r="K33" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="33" t="s">
         <v>105</v>
       </c>
@@ -3140,8 +4429,26 @@
       <c r="G34" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Belize', </v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="2"/>
+        <v>0.3],</v>
+      </c>
+      <c r="K34" t="s">
+        <v>292</v>
+      </c>
+      <c r="L34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="33" t="s">
         <v>109</v>
       </c>
@@ -3159,8 +4466,26 @@
       <c r="G35" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Costa Rica', </v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="2"/>
+        <v>0.63],</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="33" t="s">
         <v>110</v>
       </c>
@@ -3178,8 +4503,26 @@
       <c r="G36" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['El Salvador', </v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>0.14],</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="33" t="s">
         <v>111</v>
       </c>
@@ -3197,8 +4540,26 @@
       <c r="G37" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Guatemala', </v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="2"/>
+        <v>0.04],</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="33" t="s">
         <v>112</v>
       </c>
@@ -3216,8 +4577,26 @@
       <c r="G38" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Honduras', </v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>0.15],</v>
+      </c>
+      <c r="K38" t="s">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="33" t="s">
         <v>113</v>
       </c>
@@ -3235,8 +4614,26 @@
       <c r="G39" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Nicaragua', </v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v>0.02],</v>
+      </c>
+      <c r="K39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="33" t="s">
         <v>114</v>
       </c>
@@ -3254,8 +4651,26 @@
       <c r="G40" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Canada', </v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>0.3],</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="33" t="s">
         <v>115</v>
       </c>
@@ -3277,8 +4692,26 @@
       <c r="G41" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Mexico', </v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>0.38],</v>
+      </c>
+      <c r="K41" t="s">
+        <v>302</v>
+      </c>
+      <c r="L41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="33" t="s">
         <v>116</v>
       </c>
@@ -3296,8 +4729,26 @@
       <c r="G42" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1">
+      <c r="H42" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['United States of America', </v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>6.1],</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="33" t="s">
         <v>117</v>
       </c>
@@ -3315,8 +4766,26 @@
       <c r="G43" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Argentina', </v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v>0.1],</v>
+      </c>
+      <c r="K43" t="s">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="33" t="s">
         <v>118</v>
       </c>
@@ -3338,8 +4807,26 @@
       <c r="G44" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
+      <c r="H44" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Bolivia (Plurinational State of)', </v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v>0.6],</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="33" t="s">
         <v>119</v>
       </c>
@@ -3361,8 +4848,26 @@
       <c r="G45" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Brazil', </v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>1.45],</v>
+      </c>
+      <c r="K45" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="33" t="s">
         <v>120</v>
       </c>
@@ -3380,8 +4885,26 @@
       <c r="G46" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Chile', </v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v>0.28],</v>
+      </c>
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="33" t="s">
         <v>121</v>
       </c>
@@ -3399,8 +4922,26 @@
       <c r="G47" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Colombia', </v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>0.02],</v>
+      </c>
+      <c r="K47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="33" t="s">
         <v>122</v>
       </c>
@@ -3422,8 +4963,26 @@
       <c r="G48" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Ecuador', </v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="2"/>
+        <v>0.07],</v>
+      </c>
+      <c r="K48" t="s">
+        <v>315</v>
+      </c>
+      <c r="L48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="33" t="s">
         <v>123</v>
       </c>
@@ -3441,8 +5000,26 @@
       <c r="G49" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Paraguay', </v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="2"/>
+        <v>0.03],</v>
+      </c>
+      <c r="K49" t="s">
+        <v>316</v>
+      </c>
+      <c r="L49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="33" t="s">
         <v>124</v>
       </c>
@@ -3460,31 +5037,72 @@
       <c r="G50" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Peru', </v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>0.18],</v>
+      </c>
+      <c r="K50" t="s">
+        <v>318</v>
+      </c>
+      <c r="L50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>51</v>
+      <c r="B51" s="23" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C51" s="23" t="str">
+        <f t="shared" ref="C51:F51" si="3">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D51" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E51" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F51" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G51" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Suriname', </v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ],</v>
+      </c>
+      <c r="K51" t="s">
+        <v>319</v>
+      </c>
+      <c r="L51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="33" t="s">
         <v>127</v>
       </c>
@@ -3506,8 +5124,26 @@
       <c r="G52" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Uruguay', </v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v>0.18],</v>
+      </c>
+      <c r="K52" t="s">
+        <v>320</v>
+      </c>
+      <c r="L52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="33" t="s">
         <v>128</v>
       </c>
@@ -3525,8 +5161,26 @@
       <c r="G53" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Venezuela (Bolivarian Republic of)', </v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="2"/>
+        <v>0.03],</v>
+      </c>
+      <c r="K53" t="s">
+        <v>321</v>
+      </c>
+      <c r="L53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="33" t="s">
         <v>129</v>
       </c>
@@ -3548,8 +5202,26 @@
       <c r="G54" s="26" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Armenia', </v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="2"/>
+        <v>0.16],</v>
+      </c>
+      <c r="K54" t="s">
+        <v>322</v>
+      </c>
+      <c r="L54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="33" t="s">
         <v>131</v>
       </c>
@@ -3571,8 +5243,26 @@
       <c r="G55" s="26" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Azerbaijan', </v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="2"/>
+        <v>1.5],</v>
+      </c>
+      <c r="K55" t="s">
+        <v>323</v>
+      </c>
+      <c r="L55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="33" t="s">
         <v>133</v>
       </c>
@@ -3594,8 +5284,26 @@
       <c r="G56" s="26" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Georgia', </v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="2"/>
+        <v>1.36],</v>
+      </c>
+      <c r="K56" t="s">
+        <v>325</v>
+      </c>
+      <c r="L56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="33" t="s">
         <v>135</v>
       </c>
@@ -3613,8 +5321,26 @@
       <c r="G57" s="26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Kazakhstan', </v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="2"/>
+        <v>1],</v>
+      </c>
+      <c r="K57" t="s">
+        <v>327</v>
+      </c>
+      <c r="L57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="33" t="s">
         <v>137</v>
       </c>
@@ -3632,8 +5358,26 @@
       <c r="G58" s="26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Kyrgyzstan', </v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="2"/>
+        <v>0.8],</v>
+      </c>
+      <c r="K58" t="s">
+        <v>328</v>
+      </c>
+      <c r="L58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="33" t="s">
         <v>138</v>
       </c>
@@ -3651,8 +5395,26 @@
       <c r="G59" s="26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Tajikistan', </v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="2"/>
+        <v>0.54],</v>
+      </c>
+      <c r="K59" t="s">
+        <v>330</v>
+      </c>
+      <c r="L59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="33" t="s">
         <v>139</v>
       </c>
@@ -3670,8 +5432,26 @@
       <c r="G60" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Turkmenistan', </v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="2"/>
+        <v>0.32],</v>
+      </c>
+      <c r="K60" t="s">
+        <v>332</v>
+      </c>
+      <c r="L60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="33" t="s">
         <v>140</v>
       </c>
@@ -3689,8 +5469,26 @@
       <c r="G61" s="26" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Uzbekistan', </v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="2"/>
+        <v>0.8],</v>
+      </c>
+      <c r="K61" t="s">
+        <v>334</v>
+      </c>
+      <c r="L61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="33" t="s">
         <v>141</v>
       </c>
@@ -3708,8 +5506,26 @@
       <c r="G62" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Cambodia', </v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="2"/>
+        <v>0.04],</v>
+      </c>
+      <c r="K62" t="s">
+        <v>335</v>
+      </c>
+      <c r="L62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="33" t="s">
         <v>142</v>
       </c>
@@ -3731,8 +5547,26 @@
       <c r="G63" s="26" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['China', </v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="2"/>
+        <v>0.19],</v>
+      </c>
+      <c r="K63" t="s">
+        <v>336</v>
+      </c>
+      <c r="L63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="33" t="s">
         <v>144</v>
       </c>
@@ -3750,8 +5584,26 @@
       <c r="G64" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['China, Hong Kong SAR', </v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="2"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K64" t="s">
+        <v>338</v>
+      </c>
+      <c r="L64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="33" t="s">
         <v>145</v>
       </c>
@@ -3769,8 +5621,26 @@
       <c r="G65" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Indonesia', </v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="2"/>
+        <v>0.11],</v>
+      </c>
+      <c r="K65" t="s">
+        <v>339</v>
+      </c>
+      <c r="L65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="33" t="s">
         <v>146</v>
       </c>
@@ -3788,8 +5658,26 @@
       <c r="G66" s="26" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">['Lao People's Democratic Republic', </v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="2"/>
+        <v>0.37],</v>
+      </c>
+      <c r="K66" t="s">
+        <v>341</v>
+      </c>
+      <c r="L66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="33" t="s">
         <v>148</v>
       </c>
@@ -3807,8 +5695,26 @@
       <c r="G67" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1">
+      <c r="H67" s="37" t="str">
+        <f t="shared" ref="H67:H130" si="4">"'"</f>
+        <v>'</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I130" si="5">CONCATENATE("[",H67,A67,H67,", ")</f>
+        <v xml:space="preserve">['China, Macao SAR', </v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J130" si="6">CONCATENATE(B67,"],")</f>
+        <v>1.12],</v>
+      </c>
+      <c r="K67" t="s">
+        <v>342</v>
+      </c>
+      <c r="L67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="33" t="s">
         <v>149</v>
       </c>
@@ -3826,31 +5732,72 @@
       <c r="G68" s="26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1">
+      <c r="H68" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Malaysia', </v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="6"/>
+        <v>0.94],</v>
+      </c>
+      <c r="K68" t="s">
+        <v>344</v>
+      </c>
+      <c r="L68" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>51</v>
+      <c r="B69" s="23" t="str">
+        <f t="shared" ref="B69:F69" si="7">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C69" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D69" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E69" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F69" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G69" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Mongolia', </v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ],</v>
+      </c>
+      <c r="K69" t="s">
+        <v>346</v>
+      </c>
+      <c r="L69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="33" t="s">
         <v>152</v>
       </c>
@@ -3872,8 +5819,26 @@
       <c r="G70" s="26" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Myanmar', </v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="6"/>
+        <v>0.8],</v>
+      </c>
+      <c r="K70" t="s">
+        <v>347</v>
+      </c>
+      <c r="L70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="33" t="s">
         <v>153</v>
       </c>
@@ -3895,8 +5860,26 @@
       <c r="G71" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Philippines', </v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="6"/>
+        <v>0.04],</v>
+      </c>
+      <c r="K71" t="s">
+        <v>348</v>
+      </c>
+      <c r="L71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="33" t="s">
         <v>154</v>
       </c>
@@ -3918,8 +5901,26 @@
       <c r="G72" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Republic of Korea', </v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="6"/>
+        <v>0.08],</v>
+      </c>
+      <c r="K72" t="s">
+        <v>349</v>
+      </c>
+      <c r="L72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="33" t="s">
         <v>155</v>
       </c>
@@ -3941,8 +5942,26 @@
       <c r="G73" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Singapore', </v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="6"/>
+        <v>0.33],</v>
+      </c>
+      <c r="K73" t="s">
+        <v>350</v>
+      </c>
+      <c r="L73" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="33" t="s">
         <v>156</v>
       </c>
@@ -3960,31 +5979,72 @@
       <c r="G74" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Thailand', </v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="6"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K74" t="s">
+        <v>352</v>
+      </c>
+      <c r="L74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>51</v>
+      <c r="B75" s="23" t="str">
+        <f t="shared" ref="B75:F75" si="8">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C75" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D75" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E75" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F75" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G75" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Timor-Leste', </v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ],</v>
+      </c>
+      <c r="K75" t="s">
+        <v>353</v>
+      </c>
+      <c r="L75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="33" t="s">
         <v>158</v>
       </c>
@@ -4002,8 +6062,26 @@
       <c r="G76" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Viet Nam', </v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="6"/>
+        <v>0.53],</v>
+      </c>
+      <c r="K76" t="s">
+        <v>354</v>
+      </c>
+      <c r="L76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="33" t="s">
         <v>159</v>
       </c>
@@ -4021,8 +6099,26 @@
       <c r="G77" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Taiwan Province of China', </v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="6"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K77" t="s">
+        <v>356</v>
+      </c>
+      <c r="L77" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="33" t="s">
         <v>160</v>
       </c>
@@ -4044,8 +6140,26 @@
       <c r="G78" s="26" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Afghanistan', </v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="6"/>
+        <v>2.92],</v>
+      </c>
+      <c r="K78" t="s">
+        <v>357</v>
+      </c>
+      <c r="L78" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="33" t="s">
         <v>162</v>
       </c>
@@ -4063,8 +6177,26 @@
       <c r="G79" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Iran (Islamic Republic of)', </v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="6"/>
+        <v>2.27],</v>
+      </c>
+      <c r="K79" t="s">
+        <v>359</v>
+      </c>
+      <c r="L79" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="33" t="s">
         <v>163</v>
       </c>
@@ -4086,8 +6218,26 @@
       <c r="G80" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="18" customHeight="1">
+      <c r="H80" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Israel', </v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="6"/>
+        <v>0.63],</v>
+      </c>
+      <c r="K80" t="s">
+        <v>361</v>
+      </c>
+      <c r="L80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="33" t="s">
         <v>165</v>
       </c>
@@ -4105,8 +6255,26 @@
       <c r="G81" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Kuwait', </v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="6"/>
+        <v>0.17],</v>
+      </c>
+      <c r="K81" t="s">
+        <v>362</v>
+      </c>
+      <c r="L81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="33" t="s">
         <v>166</v>
       </c>
@@ -4124,31 +6292,72 @@
       <c r="G82" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Lebanon', </v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="6"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K82" t="s">
+        <v>363</v>
+      </c>
+      <c r="L82" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>51</v>
+      <c r="B83" s="23" t="str">
+        <f t="shared" ref="B83:F83" si="9">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C83" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D83" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E83" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F83" s="23" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G83" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Oman', </v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ],</v>
+      </c>
+      <c r="K83" t="s">
+        <v>364</v>
+      </c>
+      <c r="L83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="33" t="s">
         <v>168</v>
       </c>
@@ -4170,8 +6379,26 @@
       <c r="G84" s="26" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="18" customHeight="1">
+      <c r="H84" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Pakistan', </v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="6"/>
+        <v>2.4],</v>
+      </c>
+      <c r="K84" t="s">
+        <v>365</v>
+      </c>
+      <c r="L84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="33" t="s">
         <v>170</v>
       </c>
@@ -4189,8 +6416,26 @@
       <c r="G85" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Saudi Arabia', </v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="6"/>
+        <v>0.06],</v>
+      </c>
+      <c r="K85" t="s">
+        <v>367</v>
+      </c>
+      <c r="L85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="33" t="s">
         <v>171</v>
       </c>
@@ -4208,8 +6453,26 @@
       <c r="G86" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Syrian Arab Republic', </v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="6"/>
+        <v>0.02],</v>
+      </c>
+      <c r="K86" t="s">
+        <v>368</v>
+      </c>
+      <c r="L86" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="33" t="s">
         <v>172</v>
       </c>
@@ -4227,8 +6490,26 @@
       <c r="G87" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="18" customHeight="1">
+      <c r="H87" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['United Arab Emirates', </v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="6"/>
+        <v>0.02],</v>
+      </c>
+      <c r="K87" t="s">
+        <v>369</v>
+      </c>
+      <c r="L87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="33" t="s">
         <v>173</v>
       </c>
@@ -4246,8 +6527,26 @@
       <c r="G88" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Bangladesh', </v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="6"/>
+        <v>0.4],</v>
+      </c>
+      <c r="K88" t="s">
+        <v>370</v>
+      </c>
+      <c r="L88" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="33" t="s">
         <v>174</v>
       </c>
@@ -4265,8 +6564,26 @@
       <c r="G89" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Maldives', </v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="6"/>
+        <v>1.46],</v>
+      </c>
+      <c r="K89" t="s">
+        <v>372</v>
+      </c>
+      <c r="L89" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="33" t="s">
         <v>175</v>
       </c>
@@ -4288,8 +6605,26 @@
       <c r="G90" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Nepal', </v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="6"/>
+        <v>0.24],</v>
+      </c>
+      <c r="K90" t="s">
+        <v>374</v>
+      </c>
+      <c r="L90" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="33" t="s">
         <v>176</v>
       </c>
@@ -4307,8 +6642,26 @@
       <c r="G91" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Sri Lanka', </v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="6"/>
+        <v>0.33],</v>
+      </c>
+      <c r="K91" t="s">
+        <v>376</v>
+      </c>
+      <c r="L91" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="33" t="s">
         <v>177</v>
       </c>
@@ -4326,8 +6679,26 @@
       <c r="G92" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Belarus', </v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="6"/>
+        <v>0.59],</v>
+      </c>
+      <c r="K92" t="s">
+        <v>377</v>
+      </c>
+      <c r="L92" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="33" t="s">
         <v>178</v>
       </c>
@@ -4345,8 +6716,26 @@
       <c r="G93" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Republic of Moldova', </v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="6"/>
+        <v>0.12],</v>
+      </c>
+      <c r="K93" t="s">
+        <v>379</v>
+      </c>
+      <c r="L93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="33" t="s">
         <v>179</v>
       </c>
@@ -4368,8 +6757,26 @@
       <c r="G94" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Russian Federation', </v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="6"/>
+        <v>1.64],</v>
+      </c>
+      <c r="K94" t="s">
+        <v>380</v>
+      </c>
+      <c r="L94" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="33" t="s">
         <v>180</v>
       </c>
@@ -4387,8 +6794,26 @@
       <c r="G95" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Ukraine', </v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="6"/>
+        <v>0.91],</v>
+      </c>
+      <c r="K95" t="s">
+        <v>382</v>
+      </c>
+      <c r="L95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="33" t="s">
         <v>181</v>
       </c>
@@ -4406,8 +6831,26 @@
       <c r="G96" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="28">
+      <c r="H96" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Albania', </v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="6"/>
+        <v>0.45],</v>
+      </c>
+      <c r="K96" t="s">
+        <v>384</v>
+      </c>
+      <c r="L96" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="28">
       <c r="A97" s="33" t="s">
         <v>182</v>
       </c>
@@ -4429,8 +6872,26 @@
       <c r="G97" s="26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Bosnia and Herzegovina', </v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="6"/>
+        <v>0.3],</v>
+      </c>
+      <c r="K97" t="s">
+        <v>386</v>
+      </c>
+      <c r="L97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="33" t="s">
         <v>183</v>
       </c>
@@ -4448,8 +6909,26 @@
       <c r="G98" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Bulgaria', </v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="6"/>
+        <v>0.51],</v>
+      </c>
+      <c r="K98" t="s">
+        <v>387</v>
+      </c>
+      <c r="L98" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="33" t="s">
         <v>184</v>
       </c>
@@ -4471,8 +6950,26 @@
       <c r="G99" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Croatia', </v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="6"/>
+        <v>0.36],</v>
+      </c>
+      <c r="K99" t="s">
+        <v>389</v>
+      </c>
+      <c r="L99" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="33" t="s">
         <v>186</v>
       </c>
@@ -4490,8 +6987,26 @@
       <c r="G100" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['The former Yugoslav Republic of Macedonia', </v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="6"/>
+        <v>0.5],</v>
+      </c>
+      <c r="K100" t="s">
+        <v>391</v>
+      </c>
+      <c r="L100" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="33" t="s">
         <v>187</v>
       </c>
@@ -4509,8 +7024,26 @@
       <c r="G101" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="18" customHeight="1">
+      <c r="H101" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Romania', </v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="6"/>
+        <v>0.11],</v>
+      </c>
+      <c r="K101" t="s">
+        <v>392</v>
+      </c>
+      <c r="L101" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="33" t="s">
         <v>188</v>
       </c>
@@ -4532,8 +7065,26 @@
       <c r="G102" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Turkey', </v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="6"/>
+        <v>0.03],</v>
+      </c>
+      <c r="K102" t="s">
+        <v>393</v>
+      </c>
+      <c r="L102" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="33" t="s">
         <v>189</v>
       </c>
@@ -4555,8 +7106,26 @@
       <c r="G103" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Serbia', </v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="6"/>
+        <v>0.28],</v>
+      </c>
+      <c r="K103" t="s">
+        <v>394</v>
+      </c>
+      <c r="L103" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="33" t="s">
         <v>190</v>
       </c>
@@ -4578,8 +7147,26 @@
       <c r="G104" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Austria', </v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="6"/>
+        <v>0.53],</v>
+      </c>
+      <c r="K104" t="s">
+        <v>395</v>
+      </c>
+      <c r="L104" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="33" t="s">
         <v>191</v>
       </c>
@@ -4597,8 +7184,26 @@
       <c r="G105" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Belgium', </v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="6"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K105" t="s">
+        <v>396</v>
+      </c>
+      <c r="L105" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="33" t="s">
         <v>192</v>
       </c>
@@ -4620,8 +7225,26 @@
       <c r="G106" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Cyprus', </v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="6"/>
+        <v>0.12],</v>
+      </c>
+      <c r="K106" t="s">
+        <v>397</v>
+      </c>
+      <c r="L106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="33" t="s">
         <v>193</v>
       </c>
@@ -4639,8 +7262,26 @@
       <c r="G107" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Czech Republic', </v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="6"/>
+        <v>2.7],</v>
+      </c>
+      <c r="K107" t="s">
+        <v>398</v>
+      </c>
+      <c r="L107" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="33" t="s">
         <v>194</v>
       </c>
@@ -4662,8 +7303,26 @@
       <c r="G108" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Denmark', </v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="6"/>
+        <v>0.52],</v>
+      </c>
+      <c r="K108" t="s">
+        <v>400</v>
+      </c>
+      <c r="L108" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="33" t="s">
         <v>195</v>
       </c>
@@ -4681,8 +7340,26 @@
       <c r="G109" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Estonia', </v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="6"/>
+        <v>1.53],</v>
+      </c>
+      <c r="K109" t="s">
+        <v>402</v>
+      </c>
+      <c r="L109" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="33" t="s">
         <v>196</v>
       </c>
@@ -4700,8 +7377,26 @@
       <c r="G110" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Finland', </v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="6"/>
+        <v>0.6],</v>
+      </c>
+      <c r="K110" t="s">
+        <v>404</v>
+      </c>
+      <c r="L110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="33" t="s">
         <v>197</v>
       </c>
@@ -4719,8 +7414,26 @@
       <c r="G111" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['France', </v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="6"/>
+        <v>0.49],</v>
+      </c>
+      <c r="K111" t="s">
+        <v>405</v>
+      </c>
+      <c r="L111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="33" t="s">
         <v>198</v>
       </c>
@@ -4738,8 +7451,26 @@
       <c r="G112" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Germany', </v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="6"/>
+        <v>0.4],</v>
+      </c>
+      <c r="K112" t="s">
+        <v>407</v>
+      </c>
+      <c r="L112" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="33" t="s">
         <v>200</v>
       </c>
@@ -4761,8 +7492,26 @@
       <c r="G113" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Greece', </v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="6"/>
+        <v>0.29],</v>
+      </c>
+      <c r="K113" t="s">
+        <v>408</v>
+      </c>
+      <c r="L113" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="33" t="s">
         <v>201</v>
       </c>
@@ -4784,8 +7533,26 @@
       <c r="G114" s="28" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Hungary', </v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="6"/>
+        <v>0.05],</v>
+      </c>
+      <c r="K114" t="s">
+        <v>410</v>
+      </c>
+      <c r="L114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="33" t="s">
         <v>203</v>
       </c>
@@ -4803,8 +7570,26 @@
       <c r="G115" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Iceland', </v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="6"/>
+        <v>0.4],</v>
+      </c>
+      <c r="K115" t="s">
+        <v>411</v>
+      </c>
+      <c r="L115" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="33" t="s">
         <v>204</v>
       </c>
@@ -4826,8 +7611,26 @@
       <c r="G116" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Ireland', </v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="6"/>
+        <v>0.72],</v>
+      </c>
+      <c r="K116" t="s">
+        <v>412</v>
+      </c>
+      <c r="L116" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="33" t="s">
         <v>205</v>
       </c>
@@ -4849,8 +7652,26 @@
       <c r="G117" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Italy', </v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="6"/>
+        <v>0.45],</v>
+      </c>
+      <c r="K117" t="s">
+        <v>414</v>
+      </c>
+      <c r="L117" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="33" t="s">
         <v>206</v>
       </c>
@@ -4868,8 +7689,26 @@
       <c r="G118" s="26" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Latvia', </v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="6"/>
+        <v>0.66],</v>
+      </c>
+      <c r="K118" t="s">
+        <v>415</v>
+      </c>
+      <c r="L118" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="33" t="s">
         <v>208</v>
       </c>
@@ -4887,8 +7726,26 @@
       <c r="G119" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Liechtenstein', </v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="6"/>
+        <v>0.2],</v>
+      </c>
+      <c r="K119" t="s">
+        <v>417</v>
+      </c>
+      <c r="L119" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="33" t="s">
         <v>209</v>
       </c>
@@ -4910,8 +7767,26 @@
       <c r="G120" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Lithuania', </v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="6"/>
+        <v>0.24],</v>
+      </c>
+      <c r="K120" t="s">
+        <v>418</v>
+      </c>
+      <c r="L120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="33" t="s">
         <v>210</v>
       </c>
@@ -4929,8 +7804,26 @@
       <c r="G121" s="26" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Luxembourg', </v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="6"/>
+        <v>0.59],</v>
+      </c>
+      <c r="K121" t="s">
+        <v>419</v>
+      </c>
+      <c r="L121" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="33" t="s">
         <v>211</v>
       </c>
@@ -4952,31 +7845,72 @@
       <c r="G122" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Malta', </v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="6"/>
+        <v>0.62],</v>
+      </c>
+      <c r="K122" t="s">
+        <v>420</v>
+      </c>
+      <c r="L122" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B123" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>51</v>
+      <c r="B123" s="23" t="str">
+        <f t="shared" ref="B123:F123" si="10">" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C123" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D123" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E123" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F123" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G123" s="26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Monaco', </v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ],</v>
+      </c>
+      <c r="K123" t="s">
+        <v>422</v>
+      </c>
+      <c r="L123" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="33" t="s">
         <v>213</v>
       </c>
@@ -4998,8 +7932,26 @@
       <c r="G124" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Netherlands', </v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="6"/>
+        <v>0.13],</v>
+      </c>
+      <c r="K124" t="s">
+        <v>423</v>
+      </c>
+      <c r="L124" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="33" t="s">
         <v>214</v>
       </c>
@@ -5021,8 +7973,26 @@
       <c r="G125" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Norway', </v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="6"/>
+        <v>0.3],</v>
+      </c>
+      <c r="K125" t="s">
+        <v>424</v>
+      </c>
+      <c r="L125" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="33" t="s">
         <v>215</v>
       </c>
@@ -5040,8 +8010,26 @@
       <c r="G126" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Poland', </v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="6"/>
+        <v>0.1],</v>
+      </c>
+      <c r="K126" t="s">
+        <v>425</v>
+      </c>
+      <c r="L126" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="33" t="s">
         <v>216</v>
       </c>
@@ -5059,8 +8047,26 @@
       <c r="G127" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Portugal', </v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="6"/>
+        <v>0.29],</v>
+      </c>
+      <c r="K127" t="s">
+        <v>426</v>
+      </c>
+      <c r="L127" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="33" t="s">
         <v>217</v>
       </c>
@@ -5082,8 +8088,26 @@
       <c r="G128" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Slovenia', </v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="6"/>
+        <v>0.44],</v>
+      </c>
+      <c r="K128" t="s">
+        <v>427</v>
+      </c>
+      <c r="L128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="33" t="s">
         <v>218</v>
       </c>
@@ -5105,8 +8129,26 @@
       <c r="G129" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Slovakia', </v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="6"/>
+        <v>0.13],</v>
+      </c>
+      <c r="K129" t="s">
+        <v>428</v>
+      </c>
+      <c r="L129" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="33" t="s">
         <v>219</v>
       </c>
@@ -5128,8 +8170,26 @@
       <c r="G130" s="26" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v>'</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">['Spain', </v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" si="6"/>
+        <v>0.23],</v>
+      </c>
+      <c r="K130" t="s">
+        <v>429</v>
+      </c>
+      <c r="L130" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="33" t="s">
         <v>221</v>
       </c>
@@ -5151,8 +8211,26 @@
       <c r="G131" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="37" t="str">
+        <f t="shared" ref="H131:H137" si="11">"'"</f>
+        <v>'</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I137" si="12">CONCATENATE("[",H131,A131,H131,", ")</f>
+        <v xml:space="preserve">['Sweden', </v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J137" si="13">CONCATENATE(B131,"],")</f>
+        <v>0.23],</v>
+      </c>
+      <c r="K131" t="s">
+        <v>430</v>
+      </c>
+      <c r="L131" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="33" t="s">
         <v>222</v>
       </c>
@@ -5170,8 +8248,26 @@
       <c r="G132" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>'</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">['Switzerland', </v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="13"/>
+        <v>0.1],</v>
+      </c>
+      <c r="K132" t="s">
+        <v>431</v>
+      </c>
+      <c r="L132" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="33" t="s">
         <v>223</v>
       </c>
@@ -5193,8 +8289,26 @@
       <c r="G133" s="28" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>'</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">['United Kingdom (England and Wales)', </v>
+      </c>
+      <c r="J133" t="str">
+        <f t="shared" si="13"/>
+        <v>0.73],</v>
+      </c>
+      <c r="K133" t="s">
+        <v>432</v>
+      </c>
+      <c r="L133" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="33" t="s">
         <v>226</v>
       </c>
@@ -5216,8 +8330,26 @@
       <c r="G134" s="28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>'</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">['United Kingdom (Northern Ireland)', </v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="13"/>
+        <v>0.13],</v>
+      </c>
+      <c r="K134" t="s">
+        <v>434</v>
+      </c>
+      <c r="L134" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="33" t="s">
         <v>228</v>
       </c>
@@ -5239,8 +8371,26 @@
       <c r="G135" s="28" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="18" customHeight="1">
+      <c r="H135" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>'</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">['United Kingdom (Scotland)', </v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="13"/>
+        <v>1.71],</v>
+      </c>
+      <c r="K135" t="s">
+        <v>435</v>
+      </c>
+      <c r="L135" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="33" t="s">
         <v>230</v>
       </c>
@@ -5262,8 +8412,26 @@
       <c r="G136" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>'</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">['Australia', </v>
+      </c>
+      <c r="J136" t="str">
+        <f t="shared" si="13"/>
+        <v>3.4],</v>
+      </c>
+      <c r="K136" t="s">
+        <v>437</v>
+      </c>
+      <c r="L136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="34" t="s">
         <v>231</v>
       </c>
@@ -5285,29 +8453,28 @@
       <c r="G137" s="32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>'</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">['New Zealand', </v>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="13"/>
+        <v>1.1],</v>
+      </c>
+      <c r="K137" t="s">
+        <v>439</v>
+      </c>
+      <c r="L137" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="18"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1"/>
-    <row r="144" spans="1:7" ht="15" customHeight="1"/>
-    <row r="145" ht="15" customHeight="1"/>
-    <row r="146" ht="15" customHeight="1"/>
-    <row r="147" ht="15" customHeight="1"/>
-    <row r="148" ht="15" customHeight="1"/>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="23" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/2 - Heroin/h.xlsx
+++ b/2 - Heroin/h.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26500" windowHeight="21140" tabRatio="660" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="445">
   <si>
     <t>RACE</t>
   </si>
@@ -1414,6 +1414,9 @@
   <si>
     <t xml:space="preserve"> ],</t>
   </si>
+  <si>
+    <t>General Population</t>
+  </si>
 </sst>
 </file>
 
@@ -1422,7 +1425,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1716,178 +1726,188 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="83" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="90">
     <cellStyle name="Comma 2" xfId="46"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1929,6 +1949,9 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1969,8 +1992,12 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="Percent" xfId="83" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2573,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2640,6 +2667,77 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39">
+        <v>169.59299999999999</v>
+      </c>
+      <c r="C9" s="40">
+        <f>B9/$B$13</f>
+        <v>0.66348862320428148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39">
+        <v>30.082999999999998</v>
+      </c>
+      <c r="C10" s="40">
+        <f t="shared" ref="C10:C12" si="0">B10/$B$13</f>
+        <v>0.117691934524741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39">
+        <v>17.847000000000001</v>
+      </c>
+      <c r="C11" s="40">
+        <f t="shared" si="0"/>
+        <v>6.9821758317423557E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39">
+        <v>38.085000000000001</v>
+      </c>
+      <c r="C12" s="40">
+        <f t="shared" si="0"/>
+        <v>0.14899768395355387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <f>SUM(B9:B12)</f>
+        <v>255.608</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3137,7 +3235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>

--- a/2 - Heroin/h.xlsx
+++ b/2 - Heroin/h.xlsx
@@ -3866,7 +3866,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4673,12 +4673,13 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" hidden="1">
